--- a/BalanceSheet/VMC_bal.xlsx
+++ b/BalanceSheet/VMC_bal.xlsx
@@ -2946,19 +2946,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>11672000.0</v>
+        <v>706000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>13702000.0</v>
+        <v>686000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>16973000.0</v>
+        <v>671000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>19671000.0</v>
+        <v>648000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>13779000.0</v>
+        <v>633000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>628726000.0</v>
